--- a/data/trans_camb/P1417-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1417-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4593988785855966</v>
+        <v>-0.4550227681252472</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3730180409958557</v>
+        <v>-0.381160837673733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7872466972773871</v>
+        <v>0.7554648061719782</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.354069416115823</v>
+        <v>-1.28885727708352</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.865034140034045</v>
+        <v>-1.71237328214283</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.321177095851326</v>
+        <v>2.321446266906178</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9369089819839196</v>
+        <v>-1.107135242975502</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.206859809051508</v>
+        <v>-1.190087008783104</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.830882265030497</v>
+        <v>1.719691714412314</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.662183109281578</v>
+        <v>0.6742509145129324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8174242657826692</v>
+        <v>0.8217023248557793</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.410122409669058</v>
+        <v>3.371729487536914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.09928735759066</v>
+        <v>2.045773273027957</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.250042690849979</v>
+        <v>1.371087936050462</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.972732162086014</v>
+        <v>6.998285617347381</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.061724286047943</v>
+        <v>0.9568102128287239</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6911087634895212</v>
+        <v>0.6950661561172491</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.713238158138743</v>
+        <v>4.594918736643219</v>
       </c>
     </row>
     <row r="7">
@@ -781,28 +781,28 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="n">
-        <v>-0.8630861737867617</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.420034570170118</v>
+        <v>0.3288162311612033</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3184012079447637</v>
+        <v>-0.308846539468329</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4269708022503086</v>
+        <v>-0.4144292575801515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4609219769899744</v>
+        <v>0.5151673740342625</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3549259839739692</v>
+        <v>-0.3834137500206902</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4468485448704007</v>
+        <v>-0.4328332865712666</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6457739322536125</v>
+        <v>0.5728922536373134</v>
       </c>
     </row>
     <row r="9">
@@ -816,22 +816,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>0.8215485226307754</v>
+        <v>0.8031558340644223</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5191777320090656</v>
+        <v>0.5554043633310622</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.817785442504503</v>
+        <v>2.778268828534772</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6675900018833192</v>
+        <v>0.6549223129800604</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4412779643387184</v>
+        <v>0.4754120921973986</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.943339138896157</v>
+        <v>2.649838671824104</v>
       </c>
     </row>
     <row r="10">
@@ -852,7 +852,7 @@
         <v>0.2010786353298693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8822311784128694</v>
+        <v>0.8822311784128696</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.8357507376708629</v>
@@ -881,31 +881,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.893300697398047</v>
+        <v>-0.8595733006782392</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5753406678463598</v>
+        <v>-0.446554348983377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02031538664053281</v>
+        <v>0.1690829974493131</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2377072965397727</v>
+        <v>-0.3336571603323472</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5520824677964724</v>
+        <v>-0.5852361852902086</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.571457132005734</v>
+        <v>1.450307854593251</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2168227660516704</v>
+        <v>-0.2488912133364967</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.220605694645898</v>
+        <v>-0.1950858957290674</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.120398356846829</v>
+        <v>1.146942186238498</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3020740522481928</v>
+        <v>0.3108554068571613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8881301377783676</v>
+        <v>0.9400450715669744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.623803435718105</v>
+        <v>1.67900965283846</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.001020966445616</v>
+        <v>1.875980425146023</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.651475642309144</v>
+        <v>1.515714464480909</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.904509276299831</v>
+        <v>3.836671871459447</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9808919337840043</v>
+        <v>1.054326354892849</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.044681827413942</v>
+        <v>1.0832640885222</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.621976928339569</v>
+        <v>2.599401083244099</v>
       </c>
     </row>
     <row r="13">
@@ -989,28 +989,28 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7298375737335684</v>
+        <v>-0.6708538108903047</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1945369532598115</v>
+        <v>0.04836119207863481</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1860987863272725</v>
+        <v>-0.2296751512205187</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.340713643323608</v>
+        <v>-0.3441201005814724</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7583238736849554</v>
+        <v>0.7505991244772973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2082481821825083</v>
+        <v>-0.2432596574086009</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2151732561039881</v>
+        <v>-0.1915815851659584</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8611777317518506</v>
+        <v>0.9127734692539724</v>
       </c>
     </row>
     <row r="15">
@@ -1021,31 +1021,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.201108240992511</v>
+        <v>2.490103735585108</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4.383123594138259</v>
+        <v>5.249024447024821</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6.900518222825317</v>
+        <v>7.579706551780379</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.848287447568432</v>
+        <v>2.433742280003149</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.123866459141107</v>
+        <v>2.084965594689542</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.417932308646722</v>
+        <v>5.457302032770261</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.754303355750123</v>
+        <v>1.760247219500068</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.815417177574987</v>
+        <v>1.871407120314403</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4.522480393432257</v>
+        <v>4.570018255406922</v>
       </c>
     </row>
     <row r="16">
@@ -1066,7 +1066,7 @@
         <v>0.06905589587272122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5253200399067083</v>
+        <v>0.5253200399067081</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.423843236752288</v>
@@ -1095,31 +1095,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3299132242888808</v>
+        <v>-0.3245685528993404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5870771712810536</v>
+        <v>-0.5273700888202466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1367703959158844</v>
+        <v>-0.1058811524375723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3239470898480392</v>
+        <v>0.3606654782960472</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3833863908577234</v>
+        <v>0.4650967158837029</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.424663072759216</v>
+        <v>1.543613666480379</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1724176910356744</v>
+        <v>0.2456032110706697</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1425366982686174</v>
+        <v>0.1597620672633457</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.911271665943562</v>
+        <v>0.9303635449448486</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.06008361505006</v>
+        <v>0.9830958688253846</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7049265168144483</v>
+        <v>0.7523890117849622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.200254643114527</v>
+        <v>1.235511698455043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.78320384754851</v>
+        <v>2.736490023624227</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.796516275907616</v>
+        <v>2.961488514453174</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.530574233591456</v>
+        <v>3.712650956443186</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.554573312516488</v>
+        <v>1.567164936008105</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.480899674047808</v>
+        <v>1.478424171939291</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.152811226102223</v>
+        <v>2.172448952517505</v>
       </c>
     </row>
     <row r="19">
@@ -1199,32 +1199,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="6" t="n">
-        <v>-0.6475898921067774</v>
-      </c>
+      <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8354031928680894</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4017097063216565</v>
+        <v>-0.4026533902609308</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1327520725684753</v>
+        <v>0.08151507144924286</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.193758028404341</v>
+        <v>0.21889066077801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8676240997225366</v>
+        <v>1.006093505615312</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1014547411316512</v>
+        <v>0.2498183681818355</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08352172130763874</v>
+        <v>0.09343737749816544</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9657051868300073</v>
+        <v>0.8304501408065059</v>
       </c>
     </row>
     <row r="21">
@@ -1234,32 +1232,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>8.329403054560517</v>
-      </c>
+      <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>5.394507659288642</v>
+        <v>7.110520301156765</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>8.154137274852348</v>
+        <v>8.618992649141667</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>5.403780559389459</v>
+        <v>5.637510214734236</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.139461723467691</v>
+        <v>6.055941925793837</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>8.15339662866058</v>
+        <v>8.602516636617899</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.495570699322545</v>
+        <v>4.133053132689554</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.802088049435739</v>
+        <v>3.806470616183986</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>5.873070802983406</v>
+        <v>5.909058037630298</v>
       </c>
     </row>
     <row r="22">
@@ -1280,7 +1276,7 @@
         <v>0.2199793091079035</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6666446542079001</v>
+        <v>0.6666446542078999</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.27793744886012</v>
@@ -1309,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6146549840197519</v>
+        <v>-0.5885418399755116</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5733868951980684</v>
+        <v>-0.6125028169891756</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2175605250589723</v>
+        <v>-0.1779359909249943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8003418900059742</v>
+        <v>-1.075130728750142</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.33173249099177</v>
+        <v>-1.465271573278419</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.684233892948139</v>
+        <v>0.7463520961999726</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4058138627050322</v>
+        <v>-0.3047361673416716</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5183778667555546</v>
+        <v>-0.5779097874477805</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6718342284645502</v>
+        <v>0.7166431530631542</v>
       </c>
     </row>
     <row r="24">
@@ -1344,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8521346261471394</v>
+        <v>0.855633875690353</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.223211519487632</v>
+        <v>1.165319669814248</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.432909244103217</v>
+        <v>1.422907715026437</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.562266874866059</v>
+        <v>3.62054954449188</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.838150104663591</v>
+        <v>2.802898299058851</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.598914438431865</v>
+        <v>4.478262389890007</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.74017732866466</v>
+        <v>1.816794279245965</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.506101217795139</v>
+        <v>1.669260698430563</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.635859103286755</v>
+        <v>2.674653641646363</v>
       </c>
     </row>
     <row r="25">
@@ -1385,7 +1381,7 @@
         <v>0.5775449765850117</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.750243114983908</v>
+        <v>1.750243114983907</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.7760472115860753</v>
@@ -1416,25 +1412,25 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>-0.4718288672799213</v>
+        <v>-0.4585434920062337</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4199989638340726</v>
+        <v>-0.4437021228864716</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5783477463565546</v>
+        <v>-0.557836825508253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1530407191924363</v>
+        <v>0.1470260066850838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3619115895457805</v>
+        <v>-0.3443716039882808</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4286136927369937</v>
+        <v>-0.4661445362650363</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2646419655393608</v>
+        <v>0.3937701799321629</v>
       </c>
     </row>
     <row r="27">
@@ -1448,22 +1444,22 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>6.086031050461067</v>
+        <v>6.612633869267483</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.330744837133132</v>
+        <v>4.610578713699462</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7.581303233219217</v>
+        <v>7.008300199955437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.91893251521351</v>
+        <v>3.93624228302771</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.581228300249788</v>
+        <v>3.61961491703515</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.334319679735134</v>
+        <v>6.248302410328803</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1498,7 @@
         <v>0.4650835117251938</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.879755013056393</v>
+        <v>1.879755013056394</v>
       </c>
     </row>
     <row r="29">
@@ -1513,31 +1509,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3300497561642055</v>
+        <v>-0.2984045215748758</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1920312678559921</v>
+        <v>-0.1487748429004797</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4114998504833746</v>
+        <v>0.4821482102070849</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3121172818316796</v>
+        <v>0.2726556946298135</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07709428934112156</v>
+        <v>0.04855238944972107</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.090475074849127</v>
+        <v>2.121532241524567</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1551437458986814</v>
+        <v>0.1187649690757139</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07400949874036401</v>
+        <v>0.06617901077549398</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.457407131571015</v>
+        <v>1.438042115963546</v>
       </c>
     </row>
     <row r="30">
@@ -1548,31 +1544,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3598431067790091</v>
+        <v>0.355420515762319</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5342825328862321</v>
+        <v>0.5664013284430952</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.250143504002706</v>
+        <v>1.25100571950934</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.744817489361614</v>
+        <v>1.733237888595901</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.527786784283149</v>
+        <v>1.427444042430143</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.590170103460666</v>
+        <v>3.643774996898367</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9448576900191477</v>
+        <v>0.945782735159877</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8700966323345849</v>
+        <v>0.8589861689376754</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.334961668255383</v>
+        <v>2.307716798029319</v>
       </c>
     </row>
     <row r="31">
@@ -1618,31 +1614,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5292581233407418</v>
+        <v>-0.5208708016540805</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3615824540554649</v>
+        <v>-0.3023412130077347</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5874116962226408</v>
+        <v>0.6182370527357025</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1217751661348903</v>
+        <v>0.1331120688661076</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02471948440917336</v>
+        <v>-0.001448968264711732</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9742037364053205</v>
+        <v>0.9780413251071051</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1136918425342128</v>
+        <v>0.08814529896035821</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05525232209344021</v>
+        <v>0.04828059216943516</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.168451804656446</v>
+        <v>1.124848820966925</v>
       </c>
     </row>
     <row r="33">
@@ -1653,31 +1649,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.454769009274392</v>
+        <v>1.656580306938242</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.315434209335608</v>
+        <v>2.356209940931282</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>5.285356611857808</v>
+        <v>4.835906301144699</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.245844499314349</v>
+        <v>1.240030094183207</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.080854905224329</v>
+        <v>1.022427007003969</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.64429079974367</v>
+        <v>2.603199437295297</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.057914975634959</v>
+        <v>1.112323337557581</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9724807593758</v>
+        <v>0.966492252235965</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.701798482510991</v>
+        <v>2.625937012083428</v>
       </c>
     </row>
     <row r="34">
